--- a/icons.xlsx
+++ b/icons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\svg2font\icsIconFont\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\svg2font\icsIconFont\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,13 @@
   </si>
   <si>
     <t>公共</t>
+  </si>
+  <si>
+    <t>icon-netware-colours</t>
+  </si>
+  <si>
+    <t>网卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -498,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -631,6 +638,17 @@
       </c>
       <c r="C11" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/icons.xlsx
+++ b/icons.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/icons.xlsx
+++ b/icons.xlsx
@@ -99,38 +99,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小红包</t>
+  </si>
+  <si>
+    <t>icon-speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-wraning-colours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>公共</t>
+  </si>
+  <si>
+    <t>icon-netware-colours</t>
+  </si>
+  <si>
+    <t>网卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>icon-redhat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小红包</t>
-  </si>
-  <si>
-    <t>icon-speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon-wraning-colours</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告</t>
-  </si>
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>公共</t>
-  </si>
-  <si>
-    <t>icon-netware-colours</t>
-  </si>
-  <si>
-    <t>网卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +508,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -557,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -568,7 +568,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -579,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -590,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -601,7 +601,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -609,46 +609,46 @@
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
